--- a/oligo_map.csv.xlsx
+++ b/oligo_map.csv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,52 +461,147 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Support type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Synt number</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Position</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>CPG, mg</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Scale, OE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>asm Sequence</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Dens, oe/ml</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Vol, ml</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Purity, %</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Do LCMS</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Do synth</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Do cart</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Do hplc</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Do paag</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Do sed</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Do click</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Do subl</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Done LCMS</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Done synth</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Done cart</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Done hplc</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Done paag</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Done sed</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Done click</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Done subl</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Wasted</t>
         </is>
       </c>
     </row>
@@ -515,64 +610,125 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>2432</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SeqT_F</t>
+          <t>CT2057-58WT-HEX2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AATGATACGGCGACCACCGAGAT</t>
+          <t>AAAAGACCCCGTGAACCTTT[BHQ1]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Хроматография</t>
+          <t>HPLC</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
+          <t>BHQ1_1000</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>AATGATACGGCGACCACCGAGAT</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>in queue</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
+          <t>AAAAGACCCCGTGAACCTTT</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>synthesis</t>
+        </is>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0.3</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>50</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -580,64 +736,125 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>2438</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SeqT_F</t>
+          <t>CT83-MUT-ROX</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AATGATACGGCGACCACCGAGAT</t>
+          <t>CT+T{Alk_dT1}CTCCATGGGGGAG+ATA[BHQ2]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Хроматография</t>
+          <t>HPLC_ROX</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
+          <t>BHQ2_500</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>B5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>AATGATACGGCGACCACCGAGAT</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>in queue</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
+          <t>CT[SR_A2][SR_B2]CTCCATGGGGGAG[SR_A1]TA</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>synthesis</t>
+        </is>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>0.3</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>50</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -645,64 +862,125 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>2444</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SeqT_F</t>
+          <t xml:space="preserve">CTR_gyrA_Fpm </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AATGATACGGCGACCACCGAGAT</t>
+          <t xml:space="preserve">ATACTTCCGGAGATTA{Alk_dT2}CACCC </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Хроматография</t>
+          <t>HPLC_ROX</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
+          <t>biocomma_1000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>AATGATACGGCGACCACCGAGAT</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>in queue</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
+          <t>ATACTTCCGGAGATTA[SR_B4]CACCC</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>synthesis</t>
+        </is>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.3</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>50</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -710,64 +988,125 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>35</v>
+        <v>2445</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SeqT_F</t>
+          <t>CTR_gyrA_Pb</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AATGATACGGCGACCACCGAGAT</t>
+          <t>AAAGTAGGATAAATGACACTTTCTCC[BHQ2]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Хроматография</t>
+          <t>HPLC</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
+          <t>BHQ2_500</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>AATGATACGGCGACCACCGAGAT</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>in queue</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
+          <t>AAAGTAGGATAAATGACACTTTCTCC</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>synthesis</t>
+        </is>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.3</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>50</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -775,553 +1114,454 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>2460</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SeqT_F</t>
+          <t>miRNA-Probe-MGB</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AATGATACGGCGACCACCGAGAT</t>
+          <t>[FAM]GACTCACAATTCGCG[BHQ_MGB]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Хроматография</t>
+          <t>HPLC_FAM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
+          <t>MGB_1000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>AATGATACGGCGACCACCGAGAT</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>in queue</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
+          <t>[SR_B1]GACTCACAATTCGCG[SR_B3]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>synthesis</t>
+        </is>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>0.3</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>50</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>34</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SeqT_R</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CAAGCAGAAGACGGCATACGA</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Хроматография</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-01-05</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>F1</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>CAAGCAGAAGACGGCATACGA</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>in queue</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O7" t="n">
-        <v>50</v>
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>34</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SeqT_R</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CAAGCAGAAGACGGCATACGA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Хроматография</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-01-05</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>CAAGCAGAAGACGGCATACGA</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>in queue</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O8" t="n">
-        <v>50</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Modification</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>asm2000 position</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>Conc, g/ml</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ul on step, 5mg</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>ul on step, 10mg</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>Amount 5mg, g</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>Amount 5mg, ml</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>Amount 10mg, g</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>Amount 10mg, ml</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>34</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SeqT_R</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CAAGCAGAAGACGGCATACGA</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Хроматография</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-01-05</t>
-        </is>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>40</v>
+      </c>
+      <c r="E9" t="n">
+        <v>60</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.15</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>H1</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>CAAGCAGAAGACGGCATACGA</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>in queue</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>50</v>
+        <v>1.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.98</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>34</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SeqT_R</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CAAGCAGAAGACGGCATACGA</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Хроматография</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-01-05</t>
-        </is>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>40</v>
+      </c>
+      <c r="E10" t="n">
+        <v>60</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.15</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>CAAGCAGAAGACGGCATACGA</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>in queue</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>50</v>
+        <v>1.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.782</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>34</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SeqT_R</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>CAAGCAGAAGACGGCATACGA</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Хроматография</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-01-05</t>
-        </is>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>40</v>
+      </c>
+      <c r="E11" t="n">
+        <v>60</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.15</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>CAAGCAGAAGACGGCATACGA</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>in queue</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>50</v>
+        <v>1.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" t="n">
+        <v>60</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.518</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Modification</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>asm2000 position</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>Conc, g/ml</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>ul on step, 5mg</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>ul on step, 10mg</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>Amount 5mg, g</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>Amount 5mg, ml</t>
-        </is>
-      </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>Amount 10mg, g</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
-        <is>
-          <t>Amount 10mg, ml</t>
-        </is>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>+A</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[SR_A1]</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>75</v>
+      </c>
+      <c r="E13" t="n">
+        <v>60</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>+C</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0.1</v>
       </c>
       <c r="D14" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>0.505</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.049</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5610000000000001</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>5.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>+G</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0.1</v>
       </c>
       <c r="D15" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>60</v>
       </c>
       <c r="F15" t="n">
-        <v>0.327</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.267</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.363</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>+T</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>[SR_A2]</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>0.1</v>
       </c>
       <c r="D16" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
         <v>60</v>
       </c>
       <c r="F16" t="n">
-        <v>0.356</v>
+        <v>0.15</v>
       </c>
       <c r="G16" t="n">
-        <v>3.564</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0.396</v>
+        <v>0.15</v>
       </c>
       <c r="I16" t="n">
-        <v>3.96</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>FAM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>[SR_B1]</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0.1</v>
       </c>
       <c r="D17" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E17" t="n">
         <v>60</v>
@@ -1342,12 +1582,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>+A</t>
+          <t>Alk_dT1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>[SR_B2]</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1360,27 +1600,27 @@
         <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>+C</t>
+          <t>BHQ_MGB</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>[SR_B3]</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1408,12 +1648,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>+G</t>
+          <t>Alk_dT2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>[SR_B4]</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1426,181 +1666,16 @@
         <v>60</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>+T</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>75</v>
-      </c>
-      <c r="E21" t="n">
-        <v>60</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>6FAM</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>75</v>
-      </c>
-      <c r="E22" t="n">
-        <v>60</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Alk</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>[10]</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>75</v>
-      </c>
-      <c r="E23" t="n">
-        <v>60</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>R6G</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>[11]</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>75</v>
-      </c>
-      <c r="E24" t="n">
-        <v>60</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>HEX</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>[12]</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>75</v>
-      </c>
-      <c r="E25" t="n">
-        <v>60</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
